--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_12_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_12_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1164460.983563399</v>
+        <v>1158332.226511962</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1042617.113969142</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10862334.87513262</v>
+        <v>11118767.84681627</v>
       </c>
     </row>
     <row r="11">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>297.6465599307828</v>
       </c>
       <c r="H2" t="n">
-        <v>264.7232653846822</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -715,7 +715,7 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -831,7 +831,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>85.45564210299004</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
         <v>147.2515091551288</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>67.22331801800679</v>
       </c>
     </row>
     <row r="5">
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>376.5094363639473</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>118.453590005685</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -913,10 +913,10 @@
         <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -955,10 +955,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1071,7 +1071,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -1101,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>71.36151060514015</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1116,10 +1116,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>98.98102224012277</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1138,22 +1138,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>155.7153428144403</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247052</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>262.5635425677475</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705016</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1293,22 +1293,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>66.40055121331429</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -1341,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>159.6836882007449</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>78.78083674902027</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1384,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.9994691657081</v>
+        <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414547</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T12" t="n">
-        <v>190.7165703189231</v>
+        <v>188.3046392154443</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7871683969286</v>
+        <v>225.7478006422472</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1533,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>203.1977700471494</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1612,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1621,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>153.4696656457197</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>134.9994691657081</v>
+        <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414547</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T15" t="n">
-        <v>190.7165703189231</v>
+        <v>188.3046392154443</v>
       </c>
       <c r="U15" t="n">
-        <v>225.7871683969286</v>
+        <v>225.7478006422472</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1770,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>203.1977700471494</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2019,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>146.185049953102</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>183.8417748468611</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2253,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428269</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2478,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2487,7 +2487,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>21.63824106824953</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>107.4021082756239</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>45.16086499484972</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2727,10 +2727,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>191.6604102493268</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2778,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2964,10 +2964,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -3003,10 +3003,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>191.6604102493268</v>
       </c>
       <c r="U31" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3091,7 +3091,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3240,13 +3240,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>243.1373908222617</v>
+        <v>25.7319404949734</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3325,7 +3325,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>9.146142788179368</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>20.88994825141581</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3672,16 +3672,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>79.1153231220618</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>18.70843787977262</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3903,13 +3903,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>9.146142788179368</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>135.0949745400652</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -4146,13 +4146,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4200,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>193.9962538432431</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1211.708328559739</v>
+        <v>1842.294639468329</v>
       </c>
       <c r="C2" t="n">
-        <v>1211.708328559739</v>
+        <v>1473.332122527917</v>
       </c>
       <c r="D2" t="n">
-        <v>1211.708328559739</v>
+        <v>1115.066423921167</v>
       </c>
       <c r="E2" t="n">
-        <v>1211.708328559739</v>
+        <v>729.2781713229224</v>
       </c>
       <c r="F2" t="n">
-        <v>800.7224237701312</v>
+        <v>722.3326705737189</v>
       </c>
       <c r="G2" t="n">
-        <v>385.01767349442</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
@@ -4330,13 +4330,13 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
         <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4363,19 +4363,19 @@
         <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.31341879663</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="V2" t="n">
-        <v>1975.31341879663</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="W2" t="n">
-        <v>1975.31341879663</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="X2" t="n">
-        <v>1601.84766053555</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="Y2" t="n">
-        <v>1211.708328559739</v>
+        <v>2228.894479532451</v>
       </c>
     </row>
     <row r="3">
@@ -4385,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057915</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>560.1394111735141</v>
+        <v>684.9695361605189</v>
       </c>
       <c r="L3" t="n">
-        <v>1092.885047004312</v>
+        <v>1117.223096727985</v>
       </c>
       <c r="M3" t="n">
-        <v>1456.147065963532</v>
+        <v>1480.485115687205</v>
       </c>
       <c r="N3" t="n">
-        <v>1843.432194560478</v>
+        <v>1867.770244284151</v>
       </c>
       <c r="O3" t="n">
-        <v>2175.502629736639</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4442,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,40 +4464,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1006.01552520271</v>
+        <v>1087.683159487371</v>
       </c>
       <c r="C4" t="n">
-        <v>837.0793422748035</v>
+        <v>918.7469765594642</v>
       </c>
       <c r="D4" t="n">
-        <v>686.9627028624677</v>
+        <v>768.6303371471284</v>
       </c>
       <c r="E4" t="n">
-        <v>539.0496092800746</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F4" t="n">
-        <v>392.1596617821642</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G4" t="n">
         <v>305.8408313751036</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I4" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4512,28 +4512,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="U4" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="V4" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="W4" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="X4" t="n">
-        <v>1408.45656917648</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="Y4" t="n">
-        <v>1187.66399003295</v>
+        <v>1269.331624317611</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2057.32755894284</v>
+        <v>1753.808578312941</v>
       </c>
       <c r="C5" t="n">
-        <v>1688.365042002428</v>
+        <v>1753.808578312941</v>
       </c>
       <c r="D5" t="n">
-        <v>1330.099343395678</v>
+        <v>1634.158487398107</v>
       </c>
       <c r="E5" t="n">
-        <v>944.3110907974335</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F5" t="n">
-        <v>533.3251860078259</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
         <v>117.6204357321147</v>
@@ -4567,16 +4567,16 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816079</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087292</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
         <v>1656.671415230817</v>
@@ -4594,25 +4594,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V5" t="n">
-        <v>2437.640120926625</v>
+        <v>2106.577233583055</v>
       </c>
       <c r="W5" t="n">
-        <v>2437.640120926625</v>
+        <v>1753.808578312941</v>
       </c>
       <c r="X5" t="n">
-        <v>2437.640120926625</v>
+        <v>1753.808578312941</v>
       </c>
       <c r="Y5" t="n">
-        <v>2437.640120926625</v>
+        <v>1753.808578312941</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
-        <v>165.4432786182518</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057898</v>
       </c>
       <c r="I6" t="n">
         <v>51.2467865680031</v>
@@ -4649,25 +4649,25 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>684.9695361605188</v>
+        <v>590.2049751143493</v>
       </c>
       <c r="L6" t="n">
-        <v>979.6730931919905</v>
+        <v>884.908532145821</v>
       </c>
       <c r="M6" t="n">
-        <v>1342.93511215121</v>
+        <v>1248.170551105041</v>
       </c>
       <c r="N6" t="n">
-        <v>1730.220240748155</v>
+        <v>1635.455679701986</v>
       </c>
       <c r="O6" t="n">
-        <v>2062.290675924317</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P6" t="n">
-        <v>2309.473409756614</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1087.683159487371</v>
+        <v>938.9442613508772</v>
       </c>
       <c r="C7" t="n">
-        <v>918.7469765594642</v>
+        <v>770.0080784229704</v>
       </c>
       <c r="D7" t="n">
-        <v>768.6303371471284</v>
+        <v>619.8914390106346</v>
       </c>
       <c r="E7" t="n">
-        <v>620.7172435647353</v>
+        <v>471.9783454282415</v>
       </c>
       <c r="F7" t="n">
-        <v>473.8272960668249</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="G7" t="n">
-        <v>305.8408313751036</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I7" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1564.363786129911</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1564.363786129911</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074497</v>
+        <v>1341.385305324647</v>
       </c>
       <c r="U7" t="n">
-        <v>1636.446120074497</v>
+        <v>1341.385305324647</v>
       </c>
       <c r="V7" t="n">
-        <v>1636.446120074497</v>
+        <v>1341.385305324647</v>
       </c>
       <c r="W7" t="n">
-        <v>1536.465289528918</v>
+        <v>1341.385305324647</v>
       </c>
       <c r="X7" t="n">
-        <v>1308.475738630901</v>
+        <v>1341.385305324647</v>
       </c>
       <c r="Y7" t="n">
-        <v>1087.683159487371</v>
+        <v>1120.592726181117</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1146.918698535759</v>
+        <v>1324.805867331308</v>
       </c>
       <c r="C8" t="n">
-        <v>777.9561815953474</v>
+        <v>955.8433503908966</v>
       </c>
       <c r="D8" t="n">
-        <v>777.9561815953474</v>
+        <v>597.5776517841462</v>
       </c>
       <c r="E8" t="n">
-        <v>777.9561815953474</v>
+        <v>440.2894267190549</v>
       </c>
       <c r="F8" t="n">
-        <v>771.0106808461439</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="G8" t="n">
-        <v>355.3059305704328</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800308</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
         <v>51.24678656800308</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362815</v>
+        <v>187.5281822362816</v>
       </c>
       <c r="K8" t="n">
         <v>442.5171852816079</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923561</v>
@@ -4831,25 +4831,25 @@
         <v>2562.339328400154</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400154</v>
+        <v>2437.640120926624</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400154</v>
+        <v>2437.640120926624</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400154</v>
+        <v>2437.640120926624</v>
       </c>
       <c r="V8" t="n">
-        <v>2562.339328400154</v>
+        <v>2437.640120926624</v>
       </c>
       <c r="W8" t="n">
-        <v>2297.123628836773</v>
+        <v>2084.87146565651</v>
       </c>
       <c r="X8" t="n">
-        <v>1923.657870575693</v>
+        <v>1711.40570739543</v>
       </c>
       <c r="Y8" t="n">
-        <v>1533.518538599881</v>
+        <v>1711.40570739543</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
         <v>51.24678656800308</v>
@@ -4886,13 +4886,13 @@
         <v>238.427330237016</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380227</v>
+        <v>614.5430248380235</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694943</v>
+        <v>909.246581869495</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828714</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N9" t="n">
         <v>1659.79372942566</v>
@@ -4916,7 +4916,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4925,7 +4925,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>621.7403896492181</v>
+        <v>1006.01552520271</v>
       </c>
       <c r="C10" t="n">
-        <v>621.7403896492181</v>
+        <v>837.079342274803</v>
       </c>
       <c r="D10" t="n">
-        <v>621.7403896492181</v>
+        <v>686.9627028624673</v>
       </c>
       <c r="E10" t="n">
-        <v>473.8272960668249</v>
+        <v>539.0496092800742</v>
       </c>
       <c r="F10" t="n">
-        <v>473.8272960668249</v>
+        <v>392.1596617821638</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8408313751036</v>
+        <v>224.1731970904424</v>
       </c>
       <c r="H10" t="n">
         <v>157.1019332386097</v>
@@ -4962,16 +4962,16 @@
         <v>51.24678656800308</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312195</v>
+        <v>76.71595955312192</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020474</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693231</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096583</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4989,25 +4989,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1475.14946532627</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1252.170984521005</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1252.170984521005</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>1252.170984521005</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W10" t="n">
-        <v>1252.170984521005</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="X10" t="n">
-        <v>1024.181433622988</v>
+        <v>1408.45656917648</v>
       </c>
       <c r="Y10" t="n">
-        <v>803.3888544794578</v>
+        <v>1187.66399003295</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2345.167438673965</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1976.204921733553</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1617.939223126803</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1232.150970528558</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>821.1650657389509</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
-        <v>406.0926155839475</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H11" t="n">
-        <v>108.5090151927147</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912089</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810554</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136266</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>3009.337405520488</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>2755.806928794324</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>2424.744041450753</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>2424.744041450753</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>2424.744041450753</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2424.744041450753</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811082</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999812</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D12" t="n">
-        <v>618.15641553873</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332745</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601595</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927779</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064545</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>66.5121164321834</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>765.151745215813</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.428070438129</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431607</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.51949026613</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501176</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1091.613680441807</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C13" t="n">
-        <v>922.6774975139006</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D13" t="n">
-        <v>772.5608581015648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E13" t="n">
-        <v>624.6477645191717</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F13" t="n">
-        <v>477.7578170212613</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>310.0549803959803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>163.8377936138381</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>111.634748879119</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279954</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>632.1817302764914</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760405</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1317.747152581905</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>1617.076751502319</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>1849.684251935978</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088493</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>1927.294548088493</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S13" t="n">
-        <v>1927.294548088493</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T13" t="n">
-        <v>1927.294548088493</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U13" t="n">
-        <v>1927.294548088493</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V13" t="n">
-        <v>1927.294548088493</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W13" t="n">
-        <v>1722.044275313594</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X13" t="n">
-        <v>1494.054724415577</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y13" t="n">
-        <v>1273.262145272047</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1689.318139675982</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1320.35562273557</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1320.35562273557</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>934.5673701373257</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>523.5814653477182</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>108.5090151927147</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>108.5090151927147</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218343</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912096</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810564</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329465</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060172</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939509</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296687</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052369</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609171</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.605821609171</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>3170.585957320566</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>3170.585957320566</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>2839.523069976995</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>2839.523069976995</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>2466.057311715915</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2075.917979740103</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811082</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999812</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D15" t="n">
-        <v>618.15641553873</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332745</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601595</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064554</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>160.189385922801</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031481</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158135</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1212.428070438129</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992584</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410639</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533341</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297192</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431607</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199865</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471663</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.51949026613</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501176</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1091.613680441807</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>922.6774975139006</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D16" t="n">
-        <v>772.5608581015648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E16" t="n">
-        <v>624.6477645191717</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>477.7578170212613</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>310.0549803959803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>163.8377936138381</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218343</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>111.634748879119</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>315.6219318279954</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>632.1817302764914</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>976.3387758760405</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1317.747152581905</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>1617.076751502319</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>1849.684251935978</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>1927.294548088493</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>1927.294548088493</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S16" t="n">
-        <v>1927.294548088493</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T16" t="n">
-        <v>1927.294548088493</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U16" t="n">
-        <v>1927.294548088493</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V16" t="n">
-        <v>1927.294548088493</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1722.044275313594</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>1494.054724415577</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>1273.262145272047</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5515,19 +5515,19 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.422291068009</v>
@@ -5597,22 +5597,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263527</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V19" t="n">
-        <v>1755.431557602304</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W19" t="n">
-        <v>1466.014387565343</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X19" t="n">
-        <v>1466.014387565343</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="20">
@@ -5734,46 +5734,46 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5828,31 +5828,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>245.2306927803937</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2757.723669558405</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>2588.787486630498</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>2588.787486630498</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>2588.787486630498</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F22" t="n">
-        <v>2588.787486630498</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G22" t="n">
-        <v>2421.591387345378</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>3677.571434467152</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>3388.154264430192</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>3160.164713532175</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>2939.372134388645</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5971,52 +5971,52 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
         <v>4405.252601474784</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6062,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>409.1360811687896</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L24" t="n">
-        <v>904.4616873845483</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M24" t="n">
-        <v>1501.8401750111</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="N24" t="n">
-        <v>2129.438138565707</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>874.8686257536381</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C25" t="n">
-        <v>705.9324428257312</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133954</v>
+        <v>430.7826650753331</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>282.8695714929399</v>
       </c>
       <c r="F25" t="n">
         <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6174,25 +6174,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>2338.476105524075</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>2049.400878868273</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1794.716390662386</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1505.299220625425</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>1277.309669727408</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y25" t="n">
-        <v>1056.517090583878</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="26">
@@ -6208,25 +6208,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075805</v>
@@ -6235,13 +6235,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6302,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>562.8579153358621</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1058.183521551621</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1655.562009178173</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2283.159972732779</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3342.537229081859</v>
+        <v>789.7592298206043</v>
       </c>
       <c r="C28" t="n">
-        <v>3173.601046153952</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D28" t="n">
-        <v>3023.484406741616</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E28" t="n">
-        <v>2875.571313159223</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F28" t="n">
-        <v>2728.681365661313</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376193</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>4440.9326143059</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>4221.331149328841</v>
+        <v>2253.366709591041</v>
       </c>
       <c r="U28" t="n">
-        <v>3932.255922673039</v>
+        <v>1964.291482935239</v>
       </c>
       <c r="V28" t="n">
-        <v>3677.571434467152</v>
+        <v>1709.606994729352</v>
       </c>
       <c r="W28" t="n">
-        <v>3388.154264430192</v>
+        <v>1420.189824692392</v>
       </c>
       <c r="X28" t="n">
-        <v>3388.154264430192</v>
+        <v>1192.200273794374</v>
       </c>
       <c r="Y28" t="n">
-        <v>3388.154264430192</v>
+        <v>971.4076946508441</v>
       </c>
     </row>
     <row r="29">
@@ -6460,22 +6460,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6539,31 +6539,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263527</v>
+        <v>789.7592298206043</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356195</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
         <v>175.9033664000583</v>
@@ -6651,22 +6651,22 @@
         <v>2446.96308358026</v>
       </c>
       <c r="T31" t="n">
-        <v>2446.96308358026</v>
+        <v>2253.366709591041</v>
       </c>
       <c r="U31" t="n">
-        <v>2273.199413378161</v>
+        <v>1964.291482935239</v>
       </c>
       <c r="V31" t="n">
-        <v>2018.514925172274</v>
+        <v>1709.606994729352</v>
       </c>
       <c r="W31" t="n">
-        <v>1729.097755135313</v>
+        <v>1420.189824692392</v>
       </c>
       <c r="X31" t="n">
-        <v>1501.108204237296</v>
+        <v>1192.200273794374</v>
       </c>
       <c r="Y31" t="n">
-        <v>1280.315625093766</v>
+        <v>971.4076946508441</v>
       </c>
     </row>
     <row r="32">
@@ -6691,13 +6691,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111712</v>
@@ -6739,10 +6739,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6776,31 +6776,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>214.9229991561138</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>710.2486053718725</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6888,10 +6888,10 @@
         <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>2264.108249235165</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>2264.108249235165</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V34" t="n">
         <v>2018.514925172274</v>
@@ -6925,7 +6925,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6934,13 +6934,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192592</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7013,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1964.511902868375</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>197.0043242297712</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>197.0043242297712</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="38">
@@ -7156,37 +7156,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7195,7 +7195,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7250,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>801.6918836311989</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>632.7557007032921</v>
       </c>
       <c r="D40" t="n">
-        <v>194.8007783998286</v>
+        <v>482.6390612909563</v>
       </c>
       <c r="E40" t="n">
-        <v>194.8007783998286</v>
+        <v>482.6390612909563</v>
       </c>
       <c r="F40" t="n">
-        <v>194.8007783998286</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>194.8007783998286</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>983.3403484614387</v>
       </c>
     </row>
     <row r="41">
@@ -7393,19 +7393,19 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192599</v>
@@ -7414,22 +7414,22 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852255</v>
@@ -7487,28 +7487,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263527</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356195</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7596,25 +7596,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.96308358026</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>2273.199413378161</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>2018.514925172274</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1729.097755135313</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="44">
@@ -7654,13 +7654,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>559.0424953278208</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C46" t="n">
-        <v>559.0424953278208</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D46" t="n">
-        <v>408.925855915485</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E46" t="n">
-        <v>261.0127623330919</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
   </sheetData>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>240.446544241744</v>
+        <v>138.9393975111056</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>168.7434581780638</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8315,10 +8315,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>138.9393975111062</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>193.3273467878351</v>
+        <v>193.327346787836</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154994</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>303.9530049144603</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23320,13 +23320,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23421,13 +23421,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>83.32522828944164</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23500,7 +23500,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23512,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,19 +23545,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>50.44830449390048</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23658,13 +23658,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>83.32522828944164</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>71.22040037418631</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>34.7428785052337</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H22" t="n">
-        <v>57.2291039219412</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24375,7 +24375,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>123.7828069546817</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24414,10 +24414,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>110.0033420516644</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>134.6711151870876</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24615,10 +24615,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>25.74504007796142</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24852,10 +24852,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24891,10 +24891,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>25.74504007796142</v>
       </c>
       <c r="U31" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25128,13 +25128,13 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>9.000252501566337</v>
+        <v>226.4057028288546</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>139.469330230033</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>144.634190040853</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25560,16 +25560,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>66.30572490086945</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>121.5862749664513</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25791,13 +25791,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>139.469330230033</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,13 +25836,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>44.73700564187206</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26034,13 +26034,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>24.58839950885167</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>979173.7201719661</v>
+        <v>979173.720171966</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>979173.7201719661</v>
+        <v>979173.720171966</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>979173.720171966</v>
+        <v>979173.7201719661</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>808662.5101618118</v>
+        <v>955716.5822159051</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>808662.5101618117</v>
+        <v>955716.5822159051</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>955716.5822159052</v>
+        <v>955716.5822159051</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>955716.5822159053</v>
+        <v>955716.5822159052</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>955716.5822159053</v>
+        <v>955716.5822159052</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>955716.5822159051</v>
+        <v>955716.5822159052</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>955716.5822159053</v>
+        <v>955716.5822159052</v>
       </c>
     </row>
     <row r="16">
@@ -26316,25 +26316,25 @@
         <v>472099.0176719629</v>
       </c>
       <c r="C2" t="n">
-        <v>472099.0176719632</v>
+        <v>472099.017671963</v>
       </c>
       <c r="D2" t="n">
         <v>472099.0176719631</v>
       </c>
       <c r="E2" t="n">
-        <v>392146.6638165589</v>
+        <v>464109.2948217536</v>
       </c>
       <c r="F2" t="n">
-        <v>392146.6638165589</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="G2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="H2" t="n">
         <v>464109.2948217536</v>
       </c>
       <c r="I2" t="n">
-        <v>464109.2948217537</v>
+        <v>464109.2948217536</v>
       </c>
       <c r="J2" t="n">
         <v>464109.2948217537</v>
@@ -26343,7 +26343,7 @@
         <v>464109.2948217536</v>
       </c>
       <c r="L2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="M2" t="n">
         <v>464109.2948217537</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>182072.9798171908</v>
+        <v>507485.4416245464</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>309843.0334598199</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>47552.26579341494</v>
+        <v>132607.2937289268</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>82135.83059545131</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26426,10 +26426,10 @@
         <v>134318.0002618638</v>
       </c>
       <c r="E4" t="n">
-        <v>7940.571207054552</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="F4" t="n">
-        <v>7940.571207054552</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="G4" t="n">
         <v>8117.312426731974</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
         <v>92937.7724398447</v>
@@ -26478,10 +26478,10 @@
         <v>92937.77243984469</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.3405613933</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.3405613933</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-869908.5386056651</v>
+        <v>-869908.5386056653</v>
       </c>
       <c r="C6" t="n">
-        <v>244843.2449702547</v>
+        <v>244843.2449702545</v>
       </c>
       <c r="D6" t="n">
-        <v>244843.2449702546</v>
+        <v>244843.244970255</v>
       </c>
       <c r="E6" t="n">
-        <v>127826.7722309203</v>
+        <v>-152963.3683077888</v>
       </c>
       <c r="F6" t="n">
-        <v>309899.7520481111</v>
+        <v>354522.0733167577</v>
       </c>
       <c r="G6" t="n">
-        <v>45026.41911129463</v>
+        <v>354522.0733167577</v>
       </c>
       <c r="H6" t="n">
-        <v>354869.4525711145</v>
+        <v>354522.0733167576</v>
       </c>
       <c r="I6" t="n">
-        <v>354869.4525711146</v>
+        <v>354522.0733167577</v>
       </c>
       <c r="J6" t="n">
-        <v>187264.2747611321</v>
+        <v>186916.895506775</v>
       </c>
       <c r="K6" t="n">
-        <v>354869.4525711145</v>
+        <v>354522.0733167576</v>
       </c>
       <c r="L6" t="n">
-        <v>354869.4525711145</v>
+        <v>354522.0733167577</v>
       </c>
       <c r="M6" t="n">
-        <v>307317.1867776996</v>
+        <v>221914.7795878309</v>
       </c>
       <c r="N6" t="n">
-        <v>354869.4525711145</v>
+        <v>354522.0733167576</v>
       </c>
       <c r="O6" t="n">
-        <v>272733.6219756633</v>
+        <v>354522.0733167577</v>
       </c>
       <c r="P6" t="n">
-        <v>354869.4525711145</v>
+        <v>354522.0733167576</v>
       </c>
     </row>
   </sheetData>
@@ -26737,19 +26737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175389</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593298</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593298</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26798,10 +26798,10 @@
         <v>640.5848321000385</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022929</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>155.7118084757592</v>
+        <v>433.9106082241351</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>278.1987997483754</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>190.8166233022541</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>341.3068326973555</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022541</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>341.3068326973555</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022541</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>341.3068326973555</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>113.9011428421712</v>
       </c>
       <c r="H2" t="n">
-        <v>36.29528717772314</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27435,7 +27435,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27444,10 +27444,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27551,7 +27551,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>80.85095794181414</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27584,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
@@ -27602,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>151.361335334088</v>
       </c>
     </row>
     <row r="5">
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6.224405299533316</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>236.229451614998</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27675,10 +27675,10 @@
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27791,7 +27791,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27821,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>30.19606181443346</v>
       </c>
       <c r="S7" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
@@ -27836,10 +27836,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>187.5419760964682</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27858,22 +27858,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>226.2150272578215</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
@@ -27915,13 +27915,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>86.67742614966551</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28013,22 +28013,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>80.85095794181458</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28058,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>101.5575724195737</v>
       </c>
       <c r="S10" t="n">
-        <v>34.97877216099258</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
         <v>286.2271541212006</v>
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
@@ -31056,16 +31056,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
         <v>539.9786897190645</v>
@@ -31077,7 +31077,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
@@ -31126,7 +31126,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31138,16 +31138,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31232,7 +31232,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
@@ -31241,7 +31241,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31360,10 +31360,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31372,34 +31372,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31457,10 +31457,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31469,16 +31469,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,10 +31515,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.755034742181058</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336177</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
@@ -31527,37 +31527,37 @@
         <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857141</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767378</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730002</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342222</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166592</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190643</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.501508014705</v>
       </c>
       <c r="R8" t="n">
         <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745095</v>
       </c>
       <c r="T8" t="n">
         <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744846</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,34 +31594,34 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347159</v>
       </c>
       <c r="H9" t="n">
         <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436492</v>
       </c>
       <c r="J9" t="n">
-        <v>189.8178475575841</v>
+        <v>189.817847557584</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178437</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177242</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040586</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.538811676207</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405673</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378624</v>
       </c>
       <c r="Q9" t="n">
         <v>256.462496416876</v>
@@ -31633,7 +31633,7 @@
         <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000169</v>
       </c>
       <c r="U9" t="n">
         <v>0.1321789941675763</v>
@@ -31673,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.684379313654579</v>
+        <v>1.684379313654578</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231072</v>
+        <v>14.97566335231071</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335769</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31688,10 +31688,10 @@
         <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227908</v>
+        <v>250.4212663227907</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849626</v>
       </c>
       <c r="N10" t="n">
         <v>257.7559726067958</v>
@@ -31700,22 +31700,22 @@
         <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169137</v>
+        <v>203.7180217169136</v>
       </c>
       <c r="Q10" t="n">
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759582</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523477</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069559</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024982</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953988</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>19.1778794245112</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502566</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798531</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>551.7051287319848</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905541</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>17.47215759311879</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>138.937596729739</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702024</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316432</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802169</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.556281789588</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953988</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>19.1778794245112</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502566</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798531</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353157</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905541</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>17.47215759311879</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>138.937596729739</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702024</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316432</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6785118802169</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.556281789588</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32317,37 +32317,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>581.3243739860829</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32785,34 +32785,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>305.187676947251</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>704.1404939038099</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33022,13 +33022,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>460.4622569139909</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33040,16 +33040,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33259,16 +33259,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33277,16 +33277,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>213.1625787491746</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33496,13 +33496,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>260.1710714068256</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33511,19 +33511,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33748,7 +33748,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>428.7353800421384</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33760,7 +33760,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33970,16 +33970,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33988,16 +33988,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>364.3208035245835</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34207,13 +34207,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>138.5543797798742</v>
@@ -34222,7 +34222,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>263.7590256391499</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
@@ -34231,7 +34231,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>364.3208035245835</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34462,7 +34462,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>363.5371514786841</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34471,7 +34471,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34701,19 +34701,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
         <v>308.745693963795</v>
@@ -34722,7 +34722,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,22 +34777,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091742</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
         <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>538.1269048795942</v>
+        <v>436.6197581489558</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
         <v>249.6795291235323</v>
@@ -34801,7 +34801,7 @@
         <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977092</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,13 +34856,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
@@ -34871,13 +34871,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313262</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>451.0527332560634</v>
+        <v>355.3309544215487</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>255.4201198419607</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35175,28 +35175,28 @@
         <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407336</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067505</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457275</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376313</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949725</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.7456939637947</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402555</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939896</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35254,22 +35254,22 @@
         <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313199</v>
+        <v>379.9148430313207</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>297.68036063785</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820403</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.1970995928738</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961228</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235321</v>
       </c>
       <c r="Q9" t="n">
         <v>326.5580100667036</v>
@@ -35330,16 +35330,16 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870589</v>
       </c>
       <c r="K10" t="n">
         <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.0112915831068</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468032</v>
       </c>
       <c r="N10" t="n">
         <v>301.8881449860244</v>
@@ -35348,10 +35348,10 @@
         <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818072</v>
+        <v>200.9965809818071</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805397</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>409.1088842875403</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443196</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701981</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934838</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675401</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226398</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451104</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609567</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443196</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>319.7573721701981</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>347.6333793934838</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675401</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226398</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451104</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,25 +35965,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>439.1903400640646</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>167.346237972892</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>572.7987818204766</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>322.6208179396319</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36688,16 +36688,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K29" t="n">
         <v>479.454324036777</v>
@@ -36907,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36925,16 +36925,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>73.18080466315305</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>122.3296324324666</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37159,19 +37159,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37396,7 +37396,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>297.3936679588052</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37408,7 +37408,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37618,16 +37618,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37636,16 +37636,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>224.339029438562</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37870,7 +37870,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>132.4173135558165</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
@@ -37879,7 +37879,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>224.339029438562</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
         <v>37.00975247789211</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38110,7 +38110,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>220.9409070342396</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38119,7 +38119,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_12_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_12_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1158332.226511962</v>
+        <v>1161487.145854184</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>1042617.113969142</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11118767.84681627</v>
+        <v>10862334.87513262</v>
       </c>
     </row>
     <row r="11">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -670,16 +670,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>297.6465599307828</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>284.0788930262596</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -715,7 +715,7 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -831,13 +831,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>24.84860440602745</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>67.22331801800679</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>118.453590005685</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>61.71576764654055</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1068,13 +1068,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>71.36151060514015</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>50.98074812542808</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1138,10 +1138,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>286.5888679426052</v>
       </c>
       <c r="E8" t="n">
-        <v>155.7153428144403</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1150,10 +1150,10 @@
         <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247052</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705016</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1384,10 +1384,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>284.4297735342305</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444132</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.4010792945512</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364134</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T12" t="n">
-        <v>188.3046392154443</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1530,7 +1530,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1539,13 +1539,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>138.2178776215695</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>9.146142788179931</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1621,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701346</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>126.5388824951727</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>134.4010792945512</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364134</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T15" t="n">
-        <v>188.3046392154443</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U15" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1773,16 +1773,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>36.15999212057541</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>9.146142788179931</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>21.90286287505374</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>146.185049953102</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2244,7 +2244,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2253,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>108.2950343703271</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2371,7 +2371,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2478,25 +2478,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>21.63824106824953</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>88.27810958517533</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2608,13 +2608,13 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>191.6604102493268</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2857,7 +2857,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784677</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2949,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>63.16281301712621</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>191.6604102493268</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3091,7 +3091,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3243,10 +3243,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>25.7319404949734</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>9.146142788179368</v>
+        <v>21.90286287505369</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3666,19 +3666,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>79.1153231220618</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3796,7 +3796,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3903,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>9.146142788179368</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3915,7 +3915,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4149,10 +4149,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4200,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>193.9962538432431</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1842.294639468329</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="C2" t="n">
-        <v>1473.332122527917</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="D2" t="n">
-        <v>1115.066423921167</v>
+        <v>1617.047720189879</v>
       </c>
       <c r="E2" t="n">
-        <v>729.2781713229224</v>
+        <v>1231.259467591635</v>
       </c>
       <c r="F2" t="n">
-        <v>722.3326705737189</v>
+        <v>820.2735628020275</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345444</v>
+        <v>404.5688125263164</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
@@ -4330,13 +4330,13 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4348,7 +4348,7 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q2" t="n">
         <v>2542.25058172385</v>
@@ -4360,22 +4360,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.894479532451</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2228.894479532451</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>2228.894479532451</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="W2" t="n">
-        <v>2228.894479532451</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="X2" t="n">
-        <v>2228.894479532451</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="Y2" t="n">
-        <v>2228.894479532451</v>
+        <v>1975.31341879663</v>
       </c>
     </row>
     <row r="3">
@@ -4400,31 +4400,31 @@
         <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057875</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>684.9695361605189</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>1117.223096727985</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M3" t="n">
-        <v>1480.485115687205</v>
+        <v>1165.206974733668</v>
       </c>
       <c r="N3" t="n">
-        <v>1867.770244284151</v>
+        <v>1552.492103330613</v>
       </c>
       <c r="O3" t="n">
-        <v>2199.840679460312</v>
+        <v>1884.562538506775</v>
       </c>
       <c r="P3" t="n">
         <v>2447.023413292609</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1087.683159487371</v>
+        <v>690.202250398678</v>
       </c>
       <c r="C4" t="n">
-        <v>918.7469765594642</v>
+        <v>521.2660674707711</v>
       </c>
       <c r="D4" t="n">
-        <v>768.6303371471284</v>
+        <v>371.1494280584353</v>
       </c>
       <c r="E4" t="n">
-        <v>620.7172435647353</v>
+        <v>223.2363344760422</v>
       </c>
       <c r="F4" t="n">
-        <v>473.8272960668249</v>
+        <v>76.34638697813185</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386097</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.233965749941</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1337.233965749941</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>1337.233965749941</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="V4" t="n">
-        <v>1337.233965749941</v>
+        <v>1092.643294372448</v>
       </c>
       <c r="W4" t="n">
-        <v>1337.233965749941</v>
+        <v>1092.643294372448</v>
       </c>
       <c r="X4" t="n">
-        <v>1337.233965749941</v>
+        <v>1092.643294372448</v>
       </c>
       <c r="Y4" t="n">
-        <v>1269.331624317611</v>
+        <v>871.8507152289177</v>
       </c>
     </row>
     <row r="5">
@@ -4543,40 +4543,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1753.808578312941</v>
+        <v>1329.838061543121</v>
       </c>
       <c r="C5" t="n">
-        <v>1753.808578312941</v>
+        <v>960.8755446027096</v>
       </c>
       <c r="D5" t="n">
-        <v>1634.158487398107</v>
+        <v>602.6098459959592</v>
       </c>
       <c r="E5" t="n">
-        <v>1248.370234799863</v>
+        <v>602.6098459959592</v>
       </c>
       <c r="F5" t="n">
-        <v>837.3843300102556</v>
+        <v>595.6643452467557</v>
       </c>
       <c r="G5" t="n">
-        <v>421.6795797345444</v>
+        <v>179.9595949710446</v>
       </c>
       <c r="H5" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
         <v>1656.671415230817</v>
@@ -4606,13 +4606,13 @@
         <v>2106.577233583055</v>
       </c>
       <c r="W5" t="n">
-        <v>1753.808578312941</v>
+        <v>2106.577233583055</v>
       </c>
       <c r="X5" t="n">
-        <v>1753.808578312941</v>
+        <v>2106.577233583055</v>
       </c>
       <c r="Y5" t="n">
-        <v>1753.808578312941</v>
+        <v>1716.437901607243</v>
       </c>
     </row>
     <row r="6">
@@ -4622,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057898</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>590.2049751143493</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L6" t="n">
-        <v>884.908532145821</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M6" t="n">
-        <v>1248.170551105041</v>
+        <v>1227.201367341571</v>
       </c>
       <c r="N6" t="n">
-        <v>1635.455679701986</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O6" t="n">
-        <v>1967.526114878148</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2214.708848710445</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4679,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4688,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>938.9442613508772</v>
+        <v>665.1026499885492</v>
       </c>
       <c r="C7" t="n">
-        <v>770.0080784229704</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D7" t="n">
-        <v>619.8914390106346</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E7" t="n">
-        <v>471.9783454282415</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F7" t="n">
-        <v>325.0883979303312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G7" t="n">
-        <v>157.1019332386097</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386097</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1564.363786129911</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1564.363786129911</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1341.385305324647</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1341.385305324647</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>1341.385305324647</v>
+        <v>1584.950414897297</v>
       </c>
       <c r="W7" t="n">
-        <v>1341.385305324647</v>
+        <v>1295.533244860336</v>
       </c>
       <c r="X7" t="n">
-        <v>1341.385305324647</v>
+        <v>1067.543693962319</v>
       </c>
       <c r="Y7" t="n">
-        <v>1120.592726181117</v>
+        <v>846.7511148187889</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1324.805867331308</v>
+        <v>728.3028554854559</v>
       </c>
       <c r="C8" t="n">
-        <v>955.8433503908966</v>
+        <v>359.3403385450442</v>
       </c>
       <c r="D8" t="n">
-        <v>597.5776517841462</v>
+        <v>69.85663355251361</v>
       </c>
       <c r="E8" t="n">
-        <v>440.2894267190549</v>
+        <v>69.85663355251361</v>
       </c>
       <c r="F8" t="n">
-        <v>433.3439259698515</v>
+        <v>62.91113280331014</v>
       </c>
       <c r="G8" t="n">
-        <v>421.6795797345444</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="I8" t="n">
         <v>51.24678656800308</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362816</v>
+        <v>187.5281822362815</v>
       </c>
       <c r="K8" t="n">
         <v>442.5171852816079</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923561</v>
@@ -4831,25 +4831,25 @@
         <v>2562.339328400154</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926624</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="T8" t="n">
-        <v>2437.640120926624</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="U8" t="n">
-        <v>2437.640120926624</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="V8" t="n">
-        <v>2437.640120926624</v>
+        <v>2231.276441056583</v>
       </c>
       <c r="W8" t="n">
-        <v>2084.87146565651</v>
+        <v>1878.507785786469</v>
       </c>
       <c r="X8" t="n">
-        <v>1711.40570739543</v>
+        <v>1505.042027525389</v>
       </c>
       <c r="Y8" t="n">
-        <v>1711.40570739543</v>
+        <v>1114.902695549578</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
         <v>51.24678656800308</v>
@@ -4886,13 +4886,13 @@
         <v>238.427330237016</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380235</v>
+        <v>614.5430248380227</v>
       </c>
       <c r="L9" t="n">
-        <v>909.246581869495</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828715</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N9" t="n">
         <v>1659.79372942566</v>
@@ -4916,7 +4916,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4925,7 +4925,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4962,16 +4962,16 @@
         <v>51.24678656800308</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312192</v>
+        <v>76.71595955312195</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020474</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693231</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096583</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2175.400891308158</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1806.438374367746</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1448.172675760996</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1062.384423162752</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>651.398518373144</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362681</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075798</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>2952.140063348092</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2562.00073137228</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>943.3991132778466</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C12" t="n">
-        <v>768.9460839967196</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D12" t="n">
-        <v>620.0116743354683</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F12" t="n">
-        <v>314.2396613568978</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
-        <v>178.4809954028057</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349513</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061503</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>2148.04349261611</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2553.061288060775</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2434.850501963388</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
-        <v>2244.643795685161</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2016.615714228345</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V12" t="n">
-        <v>1781.463605996603</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>1527.226249268401</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1319.374749062868</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y12" t="n">
-        <v>1111.614450297915</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.6607764188008</v>
+        <v>373.8289708570296</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908938</v>
+        <v>373.8289708570296</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908938</v>
+        <v>373.8289708570296</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908938</v>
+        <v>373.8289708570296</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>2437.724555511392</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S13" t="n">
-        <v>2254.869721166297</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T13" t="n">
-        <v>2035.268256189238</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U13" t="n">
-        <v>1746.193029533436</v>
+        <v>1548.361223971664</v>
       </c>
       <c r="V13" t="n">
-        <v>1491.508541327549</v>
+        <v>1293.676735765777</v>
       </c>
       <c r="W13" t="n">
-        <v>1202.091371290588</v>
+        <v>1004.259565728817</v>
       </c>
       <c r="X13" t="n">
-        <v>974.1018203925706</v>
+        <v>776.2700148307995</v>
       </c>
       <c r="Y13" t="n">
-        <v>753.3092412490405</v>
+        <v>555.4774356872693</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075798</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3197.788768583745</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>943.3991132778466</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C15" t="n">
-        <v>768.9460839967196</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D15" t="n">
-        <v>620.0116743354683</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>314.2396613568978</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>178.4809954028057</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
-        <v>2553.061288060775</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S15" t="n">
-        <v>2434.850501963388</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T15" t="n">
-        <v>2244.643795685161</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2016.615714228345</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
-        <v>1781.463605996603</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W15" t="n">
-        <v>1527.226249268401</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1319.374749062868</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1111.614450297915</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>271.9735439263281</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908938</v>
+        <v>103.0373609984212</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908938</v>
+        <v>103.0373609984212</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908938</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R16" t="n">
-        <v>2437.724555511392</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S16" t="n">
-        <v>2254.869721166297</v>
+        <v>1735.60866391532</v>
       </c>
       <c r="T16" t="n">
-        <v>2035.268256189238</v>
+        <v>1735.60866391532</v>
       </c>
       <c r="U16" t="n">
-        <v>1746.193029533436</v>
+        <v>1446.505797040963</v>
       </c>
       <c r="V16" t="n">
-        <v>1491.508541327549</v>
+        <v>1191.821308835076</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.091371290588</v>
+        <v>902.4041387981154</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>674.414587900098</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>453.6220087565679</v>
       </c>
     </row>
     <row r="17">
@@ -5512,25 +5512,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2049.400878868273</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5743,25 +5743,25 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355938</v>
@@ -5770,10 +5770,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121648</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121648</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121648</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5910,52 +5910,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5980,10 +5980,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192571</v>
@@ -5995,7 +5995,7 @@
         <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014778</v>
@@ -6007,16 +6007,16 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
         <v>4405.252601474784</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6062,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>740.5562989961525</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>740.5562989961525</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6126,25 +6126,25 @@
         <v>580.8993044876688</v>
       </c>
       <c r="C25" t="n">
-        <v>580.8993044876688</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D25" t="n">
-        <v>430.7826650753331</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E25" t="n">
-        <v>282.8695714929399</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>265.0731740618515</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6220,10 +6220,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111712</v>
@@ -6232,34 +6232,34 @@
         <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
         <v>3820.749612123003</v>
@@ -6299,25 +6299,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>789.7592298206043</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>620.8230468926974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>470.7064074803617</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>322.7933138979686</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>175.9033664000583</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2253.366709591041</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1964.291482935239</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1709.606994729352</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1420.189824692392</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1192.200273794374</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>971.4076946508441</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6457,52 +6457,52 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
         <v>3094.515198591809</v>
@@ -6536,25 +6536,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>789.7592298206043</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="C31" t="n">
-        <v>620.8230468926974</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="D31" t="n">
-        <v>470.7064074803617</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E31" t="n">
-        <v>322.7933138979686</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F31" t="n">
-        <v>175.9033664000583</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2253.366709591041</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1964.291482935239</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1709.606994729352</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1420.189824692392</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1192.200273794374</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>971.4076946508441</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6682,37 +6682,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6739,10 +6739,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6925,61 +6925,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,25 +7010,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>322.7933138979687</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>322.7933138979687</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7162,31 +7162,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7195,7 +7195,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7250,22 +7250,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>801.6918836311989</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>632.7557007032921</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>482.6390612909563</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>482.6390612909563</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>983.3403484614387</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7393,31 +7393,31 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
         <v>2206.55866301478</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7496,22 +7496,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1176.533952578166</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7657,13 +7657,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1016.58045691144</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C46" t="n">
-        <v>847.6442739835331</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D46" t="n">
-        <v>697.5276345711974</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E46" t="n">
-        <v>549.6145409888043</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7833,25 +7833,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T46" t="n">
-        <v>2227.361618603201</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U46" t="n">
-        <v>1938.286391947399</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V46" t="n">
-        <v>1683.601903741512</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W46" t="n">
-        <v>1394.184733704551</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X46" t="n">
-        <v>1394.184733704551</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y46" t="n">
-        <v>1198.22892174168</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
   </sheetData>
@@ -8057,16 +8057,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>138.9393975111056</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>211.0329012241564</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8075,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8294,19 +8294,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>168.7434581780638</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>273.6534998179984</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>45.76488231024564</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>193.327346787836</v>
+        <v>193.3273467878351</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154994</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23272,13 +23272,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>126.4919521192229</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,19 +23308,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23427,16 +23427,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>7.203170401361746</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23512,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,19 +23545,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>222.7020862222403</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23661,19 +23661,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>110.2739705259938</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>57.22910392194173</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>126.7126101431586</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,10 +23943,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>71.22040037418631</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>57.22910392194174</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>123.7828069546817</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>77.24602870709352</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24502,7 +24502,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>25.74504007796142</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24745,7 +24745,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24837,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>116.6691671648111</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>25.74504007796142</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,10 +25131,10 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>226.4057028288546</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>139.469330230033</v>
+        <v>126.7126101431587</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25554,19 +25554,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>66.30572490086945</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>139.469330230033</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26037,10 +26037,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26073,7 +26073,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.58839950885167</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>979173.720171966</v>
+        <v>979173.7201719661</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>979173.720171966</v>
+        <v>979173.7201719661</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>979173.7201719661</v>
+        <v>979173.720171966</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>955716.5822159051</v>
+        <v>808662.5101618117</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>955716.5822159051</v>
+        <v>808662.5101618116</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>955716.5822159052</v>
+        <v>955716.5822159051</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>955716.5822159052</v>
+        <v>955716.5822159051</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>955716.5822159052</v>
+        <v>955716.582215905</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>955716.5822159052</v>
+        <v>955716.5822159051</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>955716.5822159052</v>
+        <v>955716.5822159051</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>955716.5822159052</v>
+        <v>955716.5822159051</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>955716.5822159052</v>
+        <v>955716.5822159051</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>955716.5822159052</v>
+        <v>955716.5822159051</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>955716.5822159052</v>
+        <v>955716.5822159051</v>
       </c>
     </row>
   </sheetData>
@@ -26316,22 +26316,22 @@
         <v>472099.0176719629</v>
       </c>
       <c r="C2" t="n">
-        <v>472099.017671963</v>
+        <v>472099.0176719631</v>
       </c>
       <c r="D2" t="n">
         <v>472099.0176719631</v>
       </c>
       <c r="E2" t="n">
-        <v>464109.2948217536</v>
+        <v>392146.663816559</v>
       </c>
       <c r="F2" t="n">
-        <v>464109.2948217537</v>
+        <v>392146.663816559</v>
       </c>
       <c r="G2" t="n">
         <v>464109.2948217537</v>
       </c>
       <c r="H2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="I2" t="n">
         <v>464109.2948217536</v>
@@ -26340,7 +26340,7 @@
         <v>464109.2948217537</v>
       </c>
       <c r="K2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="L2" t="n">
         <v>464109.2948217537</v>
@@ -26349,7 +26349,7 @@
         <v>464109.2948217537</v>
       </c>
       <c r="N2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="O2" t="n">
         <v>464109.2948217537</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245464</v>
+        <v>182072.9798171909</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>309843.0334598196</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289268</v>
+        <v>47552.26579341506</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>82135.83059545125</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>134318.0002618637</v>
+        <v>134318.0002618638</v>
       </c>
       <c r="C4" t="n">
         <v>134318.0002618638</v>
@@ -26426,10 +26426,10 @@
         <v>134318.0002618638</v>
       </c>
       <c r="E4" t="n">
-        <v>8117.312426731974</v>
+        <v>7940.571207054552</v>
       </c>
       <c r="F4" t="n">
-        <v>8117.312426731974</v>
+        <v>7940.571207054552</v>
       </c>
       <c r="G4" t="n">
         <v>8117.312426731974</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
         <v>92937.7724398447</v>
@@ -26478,10 +26478,10 @@
         <v>92937.77243984469</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>74306.34056139333</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-869908.5386056653</v>
+        <v>-869908.5386056649</v>
       </c>
       <c r="C6" t="n">
-        <v>244843.2449702545</v>
+        <v>244843.2449702546</v>
       </c>
       <c r="D6" t="n">
-        <v>244843.244970255</v>
+        <v>244843.2449702546</v>
       </c>
       <c r="E6" t="n">
-        <v>-152963.3683077888</v>
+        <v>127479.1533011142</v>
       </c>
       <c r="F6" t="n">
-        <v>354522.0733167577</v>
+        <v>309552.1331183048</v>
       </c>
       <c r="G6" t="n">
-        <v>354522.0733167577</v>
+        <v>44991.68118585928</v>
       </c>
       <c r="H6" t="n">
-        <v>354522.0733167576</v>
+        <v>354834.7146456789</v>
       </c>
       <c r="I6" t="n">
-        <v>354522.0733167577</v>
+        <v>354834.7146456788</v>
       </c>
       <c r="J6" t="n">
-        <v>186916.895506775</v>
+        <v>187229.5368356964</v>
       </c>
       <c r="K6" t="n">
-        <v>354522.0733167576</v>
+        <v>354834.7146456789</v>
       </c>
       <c r="L6" t="n">
-        <v>354522.0733167577</v>
+        <v>354834.7146456789</v>
       </c>
       <c r="M6" t="n">
-        <v>221914.7795878309</v>
+        <v>307282.4488522638</v>
       </c>
       <c r="N6" t="n">
-        <v>354522.0733167576</v>
+        <v>354834.7146456789</v>
       </c>
       <c r="O6" t="n">
-        <v>354522.0733167577</v>
+        <v>272698.8840502276</v>
       </c>
       <c r="P6" t="n">
-        <v>354522.0733167576</v>
+        <v>354834.7146456788</v>
       </c>
     </row>
   </sheetData>
@@ -26737,19 +26737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175389</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341674</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341674</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26792,16 +26792,16 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000385</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26822,7 +26822,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241351</v>
+        <v>155.7118084757592</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996099</v>
+        <v>190.8166233022544</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000386</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996099</v>
+        <v>190.8166233022546</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996099</v>
+        <v>190.8166233022544</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27390,13 +27390,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>113.9011428421712</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>16.93965953614577</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27435,7 +27435,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27551,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>141.4579956387767</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,19 +27584,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>151.361335334088</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>236.229451614998</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>239.3027849158648</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27678,13 +27678,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27788,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>30.19606181443346</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>201.1568951983999</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27858,10 +27858,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>68.09417367807777</v>
       </c>
       <c r="E8" t="n">
-        <v>226.2150272578215</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27870,10 +27870,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
@@ -27912,7 +27912,7 @@
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195737</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,34 +31135,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31360,10 +31360,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31372,34 +31372,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31457,10 +31457,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31469,16 +31469,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,10 +31515,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181058</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336177</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
@@ -31527,37 +31527,37 @@
         <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857141</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767378</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730002</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342222</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166592</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190643</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.501508014705</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
         <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745095</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
         <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744846</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,34 +31594,34 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.009120711347159</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
         <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436492</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
-        <v>189.817847557584</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178437</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177242</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040586</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.538811676207</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405673</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378624</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
         <v>256.462496416876</v>
@@ -31633,7 +31633,7 @@
         <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000169</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
         <v>0.1321789941675763</v>
@@ -31673,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.684379313654578</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231071</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335769</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31688,10 +31688,10 @@
         <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227907</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849626</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
         <v>257.7559726067958</v>
@@ -31700,22 +31700,22 @@
         <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169136</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759582</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523477</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069559</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024982</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>551.7051287319848</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670478</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099322</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>299.2156706987476</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670478</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T16" t="n">
-        <v>10.54013910099322</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32317,16 +32317,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
         <v>400.5469039565762</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32554,16 +32554,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
         <v>400.5469039565762</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32785,34 +32785,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>704.1404939038099</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33040,7 +33040,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33277,7 +33277,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33748,10 +33748,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33988,7 +33988,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34216,25 +34216,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>263.7590256391499</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>436.6197581489558</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>577.9642335061968</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K6" t="n">
-        <v>355.3309544215487</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820406</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>436.9619819031195</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35175,28 +35175,28 @@
         <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407336</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067505</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457275</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376313</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949725</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637947</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402555</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939896</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35254,22 +35254,22 @@
         <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313207</v>
+        <v>379.9148430313199</v>
       </c>
       <c r="L9" t="n">
-        <v>297.68036063785</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820403</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928738</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961228</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235321</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
         <v>326.5580100667036</v>
@@ -35330,16 +35330,16 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870589</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
         <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831068</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468032</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
         <v>301.8881449860244</v>
@@ -35348,10 +35348,10 @@
         <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818071</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805397</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>409.1088842875403</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>159.2338966127261</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35968,13 +35968,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
         <v>257.9506595121318</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36205,13 +36205,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
         <v>257.9506595121318</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>572.7987818204766</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36688,7 +36688,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
         <v>479.454324036777</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36925,7 +36925,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37396,10 +37396,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37636,7 +37636,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37864,25 +37864,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>132.4173135558165</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
